--- a/input data/student/2025春期講習日程(小学生) (1).xlsx
+++ b/input data/student/2025春期講習日程(小学生) (1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12300" tabRatio="850" activeTab="8"/>
+    <workbookView windowWidth="21000" windowHeight="11655" tabRatio="850" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="金澤" sheetId="4" r:id="rId1"/>
@@ -10359,8 +10359,8 @@
   <sheetPr/>
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37:K38"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15"/>
@@ -11398,8 +11398,8 @@
   <sheetPr/>
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37:K38"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15"/>
@@ -15585,8 +15585,8 @@
   <sheetPr/>
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:I4"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15"/>
